--- a/person/宋子豪/软工作业4.xlsx
+++ b/person/宋子豪/软工作业4.xlsx
@@ -446,10 +446,10 @@
     <t>作为一个后台管理员，我需要拥有自己的内部账号，可以及时登录后台系统，以便可以及时控制该系统</t>
   </si>
   <si>
-    <t>甲方使用权限</t>
-  </si>
-  <si>
-    <t>作为一个拥有黑白图像上色程序的企业，我需要有一个内部账号，拥有无限免费使用次数，方便自己的使用</t>
+    <t>多通道输入</t>
+  </si>
+  <si>
+    <t>作为一个使用黑白图像上色的用户，我需要同时上色多个黑白图片，给我带来更好的用户体验</t>
   </si>
   <si>
     <t>页面优化</t>
@@ -475,11 +475,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0;\-0;;@\ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -517,17 +517,60 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -541,22 +584,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -569,16 +615,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -593,24 +639,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -619,36 +649,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -706,187 +706,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1090,78 +1090,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,6 +1111,78 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1199,10 +1199,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1211,134 +1211,134 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="18" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1508,8 +1508,8 @@
         <xdr:to>
           <xdr:col>3</xdr:col>
           <xdr:colOff>619760</xdr:colOff>
-          <xdr:row>0</xdr:row>
-          <xdr:rowOff>297180</xdr:rowOff>
+          <xdr:row>1</xdr:row>
+          <xdr:rowOff>119380</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="[1]!OpenForm">
           <xdr:nvSpPr>
@@ -1951,8 +1951,8 @@
   <sheetPr/>
   <dimension ref="A1:P14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14"/>
@@ -1963,7 +1963,7 @@
     <col min="7" max="7" width="14.9090909090909" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="33" spans="1:16">
+    <row r="1" spans="1:16">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>21</v>
       </c>
       <c r="I11" s="19">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J11" s="20">
         <v>80</v>
@@ -2343,7 +2343,7 @@
       <c r="K11" s="21"/>
       <c r="L11" s="22"/>
       <c r="M11" s="23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N11" s="23"/>
       <c r="O11" s="23"/>
@@ -2532,7 +2532,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{adfddd4a-defe-45ae-8bcb-f0190484c019}</x14:id>
+          <x14:id>{6f2e7362-911d-488a-b032-af7ce9ed616e}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2546,7 +2546,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{910c5816-7fad-4ff6-bda9-a297c095db51}</x14:id>
+          <x14:id>{64c2d1fe-886c-494d-bdcc-1bfa8b01613b}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2560,7 +2560,7 @@
       </dataBar>
       <extLst>
         <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
-          <x14:id>{94d55436-29a5-4874-a589-94a418f5fef4}</x14:id>
+          <x14:id>{795a831b-d611-458a-8e30-5e0723ced541}</x14:id>
         </ext>
       </extLst>
     </cfRule>
@@ -2599,8 +2599,8 @@
                   <to>
                     <xdr:col>3</xdr:col>
                     <xdr:colOff>619760</xdr:colOff>
-                    <xdr:row>0</xdr:row>
-                    <xdr:rowOff>297180</xdr:rowOff>
+                    <xdr:row>1</xdr:row>
+                    <xdr:rowOff>119380</xdr:rowOff>
                   </to>
                 </anchor>
               </controlPr>
@@ -2614,7 +2614,7 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{adfddd4a-defe-45ae-8bcb-f0190484c019}">
+          <x14:cfRule type="dataBar" id="{6f2e7362-911d-488a-b032-af7ce9ed616e}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="percent">
                 <xm:f>0</xm:f>
@@ -2628,7 +2628,7 @@
           <xm:sqref>L5:L14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{910c5816-7fad-4ff6-bda9-a297c095db51}">
+          <x14:cfRule type="dataBar" id="{64c2d1fe-886c-494d-bdcc-1bfa8b01613b}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>1</xm:f>
@@ -2642,7 +2642,7 @@
           <xm:sqref>N5:N14</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="dataBar" id="{94d55436-29a5-4874-a589-94a418f5fef4}">
+          <x14:cfRule type="dataBar" id="{795a831b-d611-458a-8e30-5e0723ced541}">
             <x14:dataBar minLength="10" maxLength="90" negativeBarColorSameAsPositive="1" axisPosition="none">
               <x14:cfvo type="num">
                 <xm:f>1</xm:f>
